--- a/AcessModifire.xlsx
+++ b/AcessModifire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devlopment\javaFullStack(ADKS)\jws1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1AE0DE-FF6A-4041-9989-65BD4E4E56A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1334157E-3C34-4225-BDE3-F5BD7D2D4302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{3BAED3FC-DABD-4A40-882E-53B315DABD90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3BAED3FC-DABD-4A40-882E-53B315DABD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
     <col min="1" max="1" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -699,8 +699,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I5">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B10:E16">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -711,8 +711,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:E16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:I5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/AcessModifire.xlsx
+++ b/AcessModifire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devlopment\javaFullStack(ADKS)\jws1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1334157E-3C34-4225-BDE3-F5BD7D2D4302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17413134-C865-4C26-8945-112547BF319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3BAED3FC-DABD-4A40-882E-53B315DABD90}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{3BAED3FC-DABD-4A40-882E-53B315DABD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>public</t>
   </si>
@@ -82,13 +82,61 @@
   </si>
   <si>
     <t>Accessible in Other Packages</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>Encapsulation Strength</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>default (no modifier)</t>
+  </si>
+  <si>
+    <t>Within class only</t>
+  </si>
+  <si>
+    <t>Same package</t>
+  </si>
+  <si>
+    <t>Same package + subclasses</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Data hiding</t>
+  </si>
+  <si>
+    <t>Internal cooperation</t>
+  </si>
+  <si>
+    <t>Inheritance use</t>
+  </si>
+  <si>
+    <t>API exposure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +152,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,18 +242,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,17 +581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B56430-AEF7-4323-B374-AE0DEB73127E}">
-  <dimension ref="A1:E16"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A23" sqref="A19:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -696,6 +817,79 @@
       </c>
       <c r="E16" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
